--- a/ValueSet-tnm-m-category-uicc.xlsx
+++ b/ValueSet-tnm-m-category-uicc.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-04T16:41:07+00:00</t>
+    <t>2023-04-06T11:42:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-tnm-m-category-uicc.xlsx
+++ b/ValueSet-tnm-m-category-uicc.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-06T11:42:20+00:00</t>
+    <t>2023-04-11T09:33:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-tnm-m-category-uicc.xlsx
+++ b/ValueSet-tnm-m-category-uicc.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-11T09:33:35+00:00</t>
+    <t>2023-04-17T09:23:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-tnm-m-category-uicc.xlsx
+++ b/ValueSet-tnm-m-category-uicc.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-17T09:23:06+00:00</t>
+    <t>2023-04-17T12:55:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-tnm-m-category-uicc.xlsx
+++ b/ValueSet-tnm-m-category-uicc.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-17T12:55:59+00:00</t>
+    <t>2023-06-14T11:38:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -254,10 +254,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/ValueSet-tnm-m-category-uicc.xlsx
+++ b/ValueSet-tnm-m-category-uicc.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-14T11:38:14+00:00</t>
+    <t>2023-06-26T12:20:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-tnm-m-category-uicc.xlsx
+++ b/ValueSet-tnm-m-category-uicc.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-26T12:20:42+00:00</t>
+    <t>2023-07-06T08:26:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-tnm-m-category-uicc.xlsx
+++ b/ValueSet-tnm-m-category-uicc.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-06T08:26:38+00:00</t>
+    <t>2023-07-06T08:27:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-tnm-m-category-uicc.xlsx
+++ b/ValueSet-tnm-m-category-uicc.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-06T08:27:50+00:00</t>
+    <t>2023-09-27T08:44:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-tnm-m-category-uicc.xlsx
+++ b/ValueSet-tnm-m-category-uicc.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-27T08:44:59+00:00</t>
+    <t>2023-11-02T12:02:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-tnm-m-category-uicc.xlsx
+++ b/ValueSet-tnm-m-category-uicc.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-02T12:02:41+00:00</t>
+    <t>2023-11-02T12:07:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-tnm-m-category-uicc.xlsx
+++ b/ValueSet-tnm-m-category-uicc.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-02T12:07:33+00:00</t>
+    <t>2023-11-02T12:07:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-tnm-m-category-uicc.xlsx
+++ b/ValueSet-tnm-m-category-uicc.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-02T12:07:02+00:00</t>
+    <t>2023-12-13T13:28:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
